--- a/A2ComponentBuilding/CriticalBridgesBonus.xlsx
+++ b/A2ComponentBuilding/CriticalBridgesBonus.xlsx
@@ -22,19 +22,19 @@
     <t>Average Waiting Time</t>
   </si>
   <si>
-    <t>bridge_N1_LRP050a_LRP050b</t>
-  </si>
-  <si>
-    <t>bridge_N1_LRP048a_LRP048b</t>
-  </si>
-  <si>
-    <t>bridge_N1_LRP217d_LRP217e</t>
-  </si>
-  <si>
-    <t>bridge_N1_LRP020b_LRP020c</t>
-  </si>
-  <si>
-    <t>bridge_N1_LRP204c_LRP204d</t>
+    <t>bridge_N1_LRP008A_LRP008B</t>
+  </si>
+  <si>
+    <t>bridge_N1_LRP217A_LRP217B</t>
+  </si>
+  <si>
+    <t>bridge_N1_LRP163A_LRP163B</t>
+  </si>
+  <si>
+    <t>bridge_N1_LRP216A_LRP216B</t>
+  </si>
+  <si>
+    <t>bridge_N1_LRP022A_LRP022B</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10.16877414038515</v>
+        <v>29.13224120998684</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8.465663217920941</v>
+        <v>19.51249742059643</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6.122526658081511</v>
+        <v>13.23873206468324</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6.017429901529677</v>
+        <v>12.4977034981981</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.310144622764932</v>
+        <v>12.01877073741543</v>
       </c>
     </row>
   </sheetData>
